--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H2">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.7047091018575</v>
+        <v>40.70766766666667</v>
       </c>
       <c r="N2">
-        <v>37.7047091018575</v>
+        <v>122.123003</v>
       </c>
       <c r="O2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="P2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="Q2">
-        <v>10.09803019624803</v>
+        <v>15.41222150149622</v>
       </c>
       <c r="R2">
-        <v>10.09803019624803</v>
+        <v>138.709993513466</v>
       </c>
       <c r="S2">
-        <v>0.1604684553095619</v>
+        <v>0.1402286596595405</v>
       </c>
       <c r="T2">
-        <v>0.1604684553095619</v>
+        <v>0.1402286596595405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H3">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6818978438086</v>
+        <v>39.715023</v>
       </c>
       <c r="N3">
-        <v>39.6818978438086</v>
+        <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="P3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="Q3">
-        <v>10.62755852561314</v>
+        <v>15.036398951302</v>
       </c>
       <c r="R3">
-        <v>10.62755852561314</v>
+        <v>135.327590561718</v>
       </c>
       <c r="S3">
-        <v>0.1688832244679511</v>
+        <v>0.1368092244743889</v>
       </c>
       <c r="T3">
-        <v>0.1688832244679511</v>
+        <v>0.1368092244743889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H4">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.719119098281</v>
+        <v>27.37224266666666</v>
       </c>
       <c r="N4">
-        <v>25.719119098281</v>
+        <v>82.11672799999999</v>
       </c>
       <c r="O4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
       <c r="P4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
       <c r="Q4">
-        <v>6.888063784651941</v>
+        <v>10.36333180337956</v>
       </c>
       <c r="R4">
-        <v>6.888063784651941</v>
+        <v>93.26998623041601</v>
       </c>
       <c r="S4">
-        <v>0.1094586700688929</v>
+        <v>0.09429115252813638</v>
       </c>
       <c r="T4">
-        <v>0.1094586700688929</v>
+        <v>0.09429115252813638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.7047091018575</v>
+        <v>40.70766766666667</v>
       </c>
       <c r="N5">
-        <v>37.7047091018575</v>
+        <v>122.123003</v>
       </c>
       <c r="O5">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="P5">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="Q5">
-        <v>12.91425791359848</v>
+        <v>17.36460195045722</v>
       </c>
       <c r="R5">
-        <v>12.91425791359848</v>
+        <v>156.281417554115</v>
       </c>
       <c r="S5">
-        <v>0.2052213133244953</v>
+        <v>0.1579924644086945</v>
       </c>
       <c r="T5">
-        <v>0.2052213133244953</v>
+        <v>0.1579924644086945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.6818978438086</v>
+        <v>39.715023</v>
       </c>
       <c r="N6">
-        <v>39.6818978438086</v>
+        <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="P6">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="Q6">
-        <v>13.59146577345601</v>
+        <v>16.941171169405</v>
       </c>
       <c r="R6">
-        <v>13.59146577345601</v>
+        <v>152.470540524645</v>
       </c>
       <c r="S6">
-        <v>0.2159828675170357</v>
+        <v>0.1541398639980541</v>
       </c>
       <c r="T6">
-        <v>0.2159828675170357</v>
+        <v>0.1541398639980541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4265683333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.279705</v>
+      </c>
+      <c r="I7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="J7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.37224266666666</v>
+      </c>
+      <c r="N7">
+        <v>82.11672799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.253928842666693</v>
+      </c>
+      <c r="P7">
+        <v>0.253928842666693</v>
+      </c>
+      <c r="Q7">
+        <v>11.67613193391555</v>
+      </c>
+      <c r="R7">
+        <v>105.08518740524</v>
+      </c>
+      <c r="S7">
+        <v>0.1062357124144617</v>
+      </c>
+      <c r="T7">
+        <v>0.1062357124144617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="H7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="I7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="J7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.719119098281</v>
-      </c>
-      <c r="N7">
-        <v>25.719119098281</v>
-      </c>
-      <c r="O7">
-        <v>0.2494441393809559</v>
-      </c>
-      <c r="P7">
-        <v>0.2494441393809559</v>
-      </c>
-      <c r="Q7">
-        <v>8.809067759904671</v>
-      </c>
-      <c r="R7">
-        <v>8.809067759904671</v>
-      </c>
-      <c r="S7">
-        <v>0.139985469312063</v>
-      </c>
-      <c r="T7">
-        <v>0.139985469312063</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.214425</v>
+      </c>
+      <c r="H8">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J8">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.70766766666667</v>
+      </c>
+      <c r="N8">
+        <v>122.123003</v>
+      </c>
+      <c r="O8">
+        <v>0.3776398983502007</v>
+      </c>
+      <c r="P8">
+        <v>0.3776398983502007</v>
+      </c>
+      <c r="Q8">
+        <v>8.728741639424999</v>
+      </c>
+      <c r="R8">
+        <v>78.55867475482499</v>
+      </c>
+      <c r="S8">
+        <v>0.07941877428196574</v>
+      </c>
+      <c r="T8">
+        <v>0.07941877428196571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.214425</v>
+      </c>
+      <c r="H9">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J9">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>39.715023</v>
+      </c>
+      <c r="N9">
+        <v>119.145069</v>
+      </c>
+      <c r="O9">
+        <v>0.3684312589831062</v>
+      </c>
+      <c r="P9">
+        <v>0.3684312589831062</v>
+      </c>
+      <c r="Q9">
+        <v>8.515893806774999</v>
+      </c>
+      <c r="R9">
+        <v>76.64304426097499</v>
+      </c>
+      <c r="S9">
+        <v>0.07748217051066321</v>
+      </c>
+      <c r="T9">
+        <v>0.0774821705106632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.214425</v>
+      </c>
+      <c r="H10">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J10">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.37224266666666</v>
+      </c>
+      <c r="N10">
+        <v>82.11672799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.253928842666693</v>
+      </c>
+      <c r="P10">
+        <v>0.253928842666693</v>
+      </c>
+      <c r="Q10">
+        <v>5.869293133799999</v>
+      </c>
+      <c r="R10">
+        <v>52.82363820419999</v>
+      </c>
+      <c r="S10">
+        <v>0.05340197772409491</v>
+      </c>
+      <c r="T10">
+        <v>0.0534019777240949</v>
       </c>
     </row>
   </sheetData>
